--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.6949120507809006</v>
+        <v>0.6950908042689878</v>
       </c>
       <c r="E2">
-        <v>0.6949120507809006</v>
+        <v>0.6950908042689878</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.00141953455217182</v>
+        <v>0.001418715245402583</v>
       </c>
       <c r="E3">
-        <v>0.00141953455217182</v>
+        <v>0.001418715245402583</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.971350688723384</v>
+        <v>0.9710666448946109</v>
       </c>
       <c r="E4">
-        <v>0.971350688723384</v>
+        <v>0.9710666448946109</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.00113658142336462</v>
+        <v>0.001136821777982218</v>
       </c>
       <c r="E5">
-        <v>0.00113658142336462</v>
+        <v>0.001136821777982218</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.1911691869596429</v>
+        <v>0.1911117487871187</v>
       </c>
       <c r="E6">
-        <v>0.1911691869596429</v>
+        <v>0.1911117487871187</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9400402858199141</v>
+        <v>0.9999999999683244</v>
       </c>
       <c r="E7">
-        <v>0.05995971418008594</v>
+        <v>3.167555107097542E-11</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.8922089304013124</v>
+        <v>0.9582423534428004</v>
       </c>
       <c r="E8">
-        <v>0.1077910695986876</v>
+        <v>0.0417576465571996</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9343041865092218</v>
+        <v>0.761090458840944</v>
       </c>
       <c r="E9">
-        <v>0.06569581349077824</v>
+        <v>0.238909541159056</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9080608506518095</v>
+        <v>0.5053742700161901</v>
       </c>
       <c r="E10">
-        <v>0.09193914934819047</v>
+        <v>0.4946257299838099</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9198251683913489</v>
+        <v>1.178463594580837E-05</v>
       </c>
       <c r="E11">
-        <v>0.08017483160865113</v>
+        <v>0.9999882153640542</v>
       </c>
       <c r="F11">
-        <v>0.5378360748291016</v>
+        <v>1.729198098182678</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8861064218046507</v>
+        <v>0.8865139484026694</v>
       </c>
       <c r="E12">
-        <v>0.8861064218046507</v>
+        <v>0.8865139484026694</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.01347267383670331</v>
+        <v>0.01346969077979133</v>
       </c>
       <c r="E13">
-        <v>0.01347267383670331</v>
+        <v>0.01346969077979133</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9861429411485858</v>
+        <v>0.9860184529618947</v>
       </c>
       <c r="E14">
-        <v>0.9861429411485858</v>
+        <v>0.9860184529618947</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.008563414284716428</v>
+        <v>0.008569857483065163</v>
       </c>
       <c r="E15">
-        <v>0.008563414284716428</v>
+        <v>0.008569857483065163</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.1251194982485793</v>
+        <v>0.1251051171349855</v>
       </c>
       <c r="E16">
-        <v>0.1251194982485793</v>
+        <v>0.1251051171349855</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9866200872804448</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E17">
-        <v>0.01337991271955519</v>
+        <v>2.220446049250313E-16</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9745452956733278</v>
+        <v>0.9974594307080419</v>
       </c>
       <c r="E18">
-        <v>0.02545470432667218</v>
+        <v>0.002540569291958117</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9850950577300295</v>
+        <v>0.7637299225550545</v>
       </c>
       <c r="E19">
-        <v>0.01490494226997052</v>
+        <v>0.2362700774449455</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9782146740026068</v>
+        <v>0.05033173115500862</v>
       </c>
       <c r="E20">
-        <v>0.02178532599739325</v>
+        <v>0.9496682688449913</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -728,19 +728,19 @@
         <v>15</v>
       </c>
       <c r="C21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.9816053223999471</v>
+        <v>0.1253193904637937</v>
       </c>
       <c r="E21">
-        <v>0.01839467760005287</v>
+        <v>0.8746806095362063</v>
       </c>
       <c r="F21">
-        <v>0.6702147722244263</v>
+        <v>1.194000482559204</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
